--- a/Prislista.xlsx
+++ b/Prislista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmering\GitHub mapp\Sidewinder-35X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DF022A-90D7-42B2-AB74-F43D1618BA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAA9A4-7012-4274-9C01-72173F673563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92FC6596-3126-4C4E-BBBA-8CB13913623D}"/>
   </bookViews>
@@ -34,81 +34,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Grejer</t>
   </si>
   <si>
-    <t>Choppercykel</t>
-  </si>
-  <si>
     <t>Summa</t>
   </si>
   <si>
     <t>Kostnad</t>
   </si>
   <si>
-    <t>VESC</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Rullgas</t>
-  </si>
-  <si>
-    <t>Drev (och kedjelänk)</t>
-  </si>
-  <si>
     <t>Kommentar</t>
   </si>
   <si>
-    <t>Blocket</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t>60V, 50A</t>
-  </si>
-  <si>
-    <t>200Kv 1380W 36V</t>
-  </si>
-  <si>
-    <t>Med VESC:</t>
-  </si>
-  <si>
-    <t>1800W kit variant</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>1800W kit</t>
-  </si>
-  <si>
-    <t>1 106,86</t>
-  </si>
-  <si>
-    <t>Batterier</t>
-  </si>
-  <si>
-    <t>5S Lipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000 mAh 30C </t>
-  </si>
-  <si>
-    <t>Hobbyking</t>
-  </si>
-  <si>
-    <t>Kedja</t>
-  </si>
-  <si>
-    <t>Drev</t>
+    <t>Totalt:</t>
+  </si>
+  <si>
+    <t>2 x Transporthjul 100x30mm</t>
+  </si>
+  <si>
+    <t>2 x Transporthjul 50mm</t>
+  </si>
+  <si>
+    <t>Biltema</t>
+  </si>
+  <si>
+    <t>10 x Gångjärn 80x50mm</t>
+  </si>
+  <si>
+    <t>1 x VESC</t>
+  </si>
+  <si>
+    <t>Köpt</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>En togs från hojen</t>
   </si>
 </sst>
 </file>
@@ -144,13 +114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF00CC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,23 +382,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,34 +445,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,12 +815,12 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
@@ -848,96 +833,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="H1" s="17"/>
       <c r="I1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
+      <c r="A2" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>1100</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18">
         <f>SUM(B2:B10)</f>
-        <v>4490.869999999999</v>
+        <v>1645.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>4</v>
+      <c r="A3" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="8">
-        <v>701</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>39.9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="14"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>5</v>
+      <c r="A4" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="8">
-        <v>1106.8599999999999</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>424.5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="14"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>20</v>
+      <c r="A5" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>479.68</v>
+        <v>1101</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -946,18 +933,10 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8">
-        <v>479.68</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="33"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="14"/>
@@ -965,15 +944,9 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>336.09</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="33"/>
+      <c r="B7" s="8"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="14"/>
@@ -981,16 +954,10 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="8">
-        <v>181.69</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="33"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="14"/>
@@ -998,15 +965,9 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8">
-        <v>105.87</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="33"/>
+      <c r="B9" s="8"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="14"/>
@@ -1024,90 +985,71 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23">
-        <f>SUM(B11:B18)</f>
-        <v>2678</v>
-      </c>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1578</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>

--- a/Prislista.xlsx
+++ b/Prislista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmering\GitHub mapp\Sidewinder-35X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmering\Github mapp\Sidewinder-35X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAA9A4-7012-4274-9C01-72173F673563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F583F84-A2D7-40B7-8A6F-DF4A482025A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92FC6596-3126-4C4E-BBBA-8CB13913623D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FC6596-3126-4C4E-BBBA-8CB13913623D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Grejer</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>En togs från hojen</t>
+  </si>
+  <si>
+    <t>2 x Elektrisk pedal</t>
+  </si>
+  <si>
+    <t>1 x (BT-högtalare)</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -814,21 +820,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DCDC53-73AE-42FC-AFEB-269BBF6D4BBB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
@@ -872,10 +878,10 @@
       </c>
       <c r="I2" s="18">
         <f>SUM(B2:B10)</f>
-        <v>1645.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2227.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -894,7 +900,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -913,12 +919,12 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>1101</v>
+        <v>951</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -926,34 +932,53 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="14"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <f>2*206</f>
+        <v>412</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="14"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>319.99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
@@ -964,7 +989,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="8"/>
       <c r="D9" s="5"/>
@@ -974,7 +999,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="15"/>
       <c r="C10" s="2"/>
@@ -985,7 +1010,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -996,7 +1021,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="22"/>
       <c r="C12" s="26"/>
@@ -1007,7 +1032,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="28"/>
       <c r="C13" s="26"/>
@@ -1018,7 +1043,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
@@ -1029,7 +1054,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="28"/>
       <c r="C15" s="26"/>
@@ -1040,7 +1065,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
@@ -1051,7 +1076,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
@@ -1062,7 +1087,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>

--- a/Prislista.xlsx
+++ b/Prislista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmering\Github mapp\Sidewinder-35X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F583F84-A2D7-40B7-8A6F-DF4A482025A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A0A39-476B-4A8B-A450-C0D20561F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FC6596-3126-4C4E-BBBA-8CB13913623D}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{92FC6596-3126-4C4E-BBBA-8CB13913623D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Grejer</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Ja</t>
-  </si>
-  <si>
-    <t>En togs från hojen</t>
   </si>
   <si>
     <t>2 x Elektrisk pedal</t>
@@ -400,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,19 +477,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +812,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +849,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7">
@@ -868,7 +859,7 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3"/>
@@ -882,7 +873,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8">
@@ -892,7 +883,7 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="5"/>
@@ -901,7 +892,7 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8">
@@ -911,7 +902,7 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5"/>
@@ -920,19 +911,17 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8">
         <v>951</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
@@ -941,8 +930,8 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <f>2*206</f>
@@ -952,7 +941,7 @@
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5"/>
@@ -961,8 +950,8 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>16</v>
+      <c r="A7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="8">
         <v>319.99</v>
@@ -970,7 +959,7 @@
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="5"/>
@@ -979,7 +968,7 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="5"/>
@@ -990,7 +979,7 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1018,8 +1007,8 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
@@ -1029,8 +1018,8 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -1040,8 +1029,8 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -1051,8 +1040,8 @@
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
@@ -1062,8 +1051,8 @@
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
@@ -1073,8 +1062,8 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
